--- a/biology/Zoologie/Attenborosaurus/Attenborosaurus.xlsx
+++ b/biology/Zoologie/Attenborosaurus/Attenborosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Attenborosaurus conybeari, Plesiosaurus conybeari, Plesiosaurus laticeps
 Attenborosaurus est un genre fossile de plésiosaures de la super-famille des pliosaures, bien que muni d'un cou relativement long. Une seule espèce est connue : Attenborosaurus conybeari.
@@ -512,12 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Attenborosaurus est décrit en 1993 par Bakker[1].
-Étymologie
-L'épithète spécifique rend hommage à William Conybeare (Sollas l'avait originellement dénommée  Plesiosaurus conybeari en 1881).
-Le genre est nommé en hommage à David Attenborough.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Attenborosaurus est décrit en 1993 par Bakker.
 </t>
         </is>
       </c>
@@ -543,10 +554,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique rend hommage à William Conybeare (Sollas l'avait originellement dénommée  Plesiosaurus conybeari en 1881).
+Le genre est nommé en hommage à David Attenborough.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Attenborosaurus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Attenborosaurus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vivait dans ce qui est actuellement le Dorset, en Angleterre, au Jurassique inférieur (Sinémurien).
 </t>
